--- a/Business/Finance/Budgets, Packets and Templates/Packets/TURBOCAM Sponsorship Packet/Budgets 2019-2020.xlsx
+++ b/Business/Finance/Budgets, Packets and Templates/Packets/TURBOCAM Sponsorship Packet/Budgets 2019-2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\UNHSEDS\Business\Finance\Budgets, Packets and Templates\Budgets\2019-2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\UNHSEDS\Business\Finance\Budgets, Packets and Templates\Packets\TURBOCAM Sponsorship Packet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{502B0BDE-5950-40C0-BFD8-A706B8E32857}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACC63C7-9AF7-48C4-ACA4-59F7D91B7697}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-2020" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="87">
   <si>
     <t>Total Membership Expenses</t>
   </si>
@@ -253,9 +253,6 @@
     <t xml:space="preserve">Seneca Machine </t>
   </si>
   <si>
-    <t>"Stainless Steel Nozzel Machining"</t>
-  </si>
-  <si>
     <t xml:space="preserve">New England Wire Technologies </t>
   </si>
   <si>
@@ -292,10 +289,10 @@
     <t>Total Industry Sponsorship</t>
   </si>
   <si>
-    <t>Inconclusive ATM</t>
-  </si>
-  <si>
     <t>Total Collegiate Sponsorship</t>
+  </si>
+  <si>
+    <t>Misc. Machining</t>
   </si>
 </sst>
 </file>
@@ -670,7 +667,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -934,9 +931,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -947,23 +941,32 @@
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1376,7 +1379,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E124" sqref="E124"/>
+      <selection pane="bottomLeft" activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1412,7 +1415,7 @@
       <c r="C3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="99" t="s">
+      <c r="D3" s="96" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1422,13 +1425,13 @@
       </c>
       <c r="B4" s="54"/>
       <c r="C4" s="55"/>
-      <c r="D4" s="99"/>
+      <c r="D4" s="96"/>
     </row>
     <row r="5" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="56"/>
       <c r="B5" s="54"/>
       <c r="C5" s="57"/>
-      <c r="D5" s="99"/>
+      <c r="D5" s="96"/>
     </row>
     <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
@@ -1436,7 +1439,7 @@
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="58"/>
-      <c r="D6" s="99"/>
+      <c r="D6" s="96"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
@@ -1447,7 +1450,7 @@
         <v>7956.4</v>
       </c>
       <c r="C7" s="39"/>
-      <c r="D7" s="99"/>
+      <c r="D7" s="96"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -1458,7 +1461,7 @@
         <v>1605</v>
       </c>
       <c r="C8" s="43"/>
-      <c r="D8" s="99"/>
+      <c r="D8" s="96"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
@@ -1469,7 +1472,7 @@
         <v>1540</v>
       </c>
       <c r="C9" s="36"/>
-      <c r="D9" s="99"/>
+      <c r="D9" s="96"/>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
@@ -1480,7 +1483,7 @@
         <f>SUM(B7:B9)</f>
         <v>11101.4</v>
       </c>
-      <c r="D10" s="99"/>
+      <c r="D10" s="96"/>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="60" t="s">
@@ -1491,13 +1494,13 @@
         <f>C10/20</f>
         <v>555.06999999999994</v>
       </c>
-      <c r="D11" s="99"/>
+      <c r="D11" s="96"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="61"/>
       <c r="B12" s="62"/>
       <c r="C12" s="63"/>
-      <c r="D12" s="99"/>
+      <c r="D12" s="96"/>
     </row>
     <row r="13" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="64"/>
@@ -1509,7 +1512,7 @@
       <c r="A14" s="61"/>
       <c r="B14" s="62"/>
       <c r="C14" s="67"/>
-      <c r="D14" s="98" t="s">
+      <c r="D14" s="95" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1519,7 +1522,7 @@
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="98"/>
+      <c r="D15" s="95"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
@@ -1529,7 +1532,7 @@
         <v>200</v>
       </c>
       <c r="C16" s="35"/>
-      <c r="D16" s="98"/>
+      <c r="D16" s="95"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
@@ -1539,7 +1542,7 @@
         <v>300</v>
       </c>
       <c r="C17" s="35"/>
-      <c r="D17" s="98"/>
+      <c r="D17" s="95"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
@@ -1549,7 +1552,7 @@
         <v>310</v>
       </c>
       <c r="C18" s="35"/>
-      <c r="D18" s="98"/>
+      <c r="D18" s="95"/>
     </row>
     <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="59" t="s">
@@ -1560,7 +1563,7 @@
         <f>SUM(B16:B18)</f>
         <v>810</v>
       </c>
-      <c r="D19" s="98"/>
+      <c r="D19" s="95"/>
     </row>
     <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="60" t="s">
@@ -1571,13 +1574,13 @@
         <f>C19/2</f>
         <v>405</v>
       </c>
-      <c r="D20" s="98"/>
+      <c r="D20" s="95"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="26"/>
-      <c r="D21" s="98"/>
+      <c r="D21" s="95"/>
     </row>
     <row r="22" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="64"/>
@@ -1589,7 +1592,7 @@
       <c r="A23" s="17"/>
       <c r="B23" s="18"/>
       <c r="C23" s="40"/>
-      <c r="D23" s="98" t="s">
+      <c r="D23" s="95" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1599,7 +1602,7 @@
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="25"/>
-      <c r="D24" s="98"/>
+      <c r="D24" s="95"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
@@ -1610,7 +1613,7 @@
         <v>4386.4800000000005</v>
       </c>
       <c r="C25" s="35"/>
-      <c r="D25" s="98"/>
+      <c r="D25" s="95"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
@@ -1621,7 +1624,7 @@
         <v>2236.8000000000002</v>
       </c>
       <c r="C26" s="35"/>
-      <c r="D26" s="98"/>
+      <c r="D26" s="95"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
@@ -1632,7 +1635,7 @@
         <v>600</v>
       </c>
       <c r="C27" s="35"/>
-      <c r="D27" s="98"/>
+      <c r="D27" s="95"/>
     </row>
     <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="59" t="s">
@@ -1643,7 +1646,7 @@
         <f>SUM(B25:B27)</f>
         <v>7223.2800000000007</v>
       </c>
-      <c r="D28" s="98"/>
+      <c r="D28" s="95"/>
     </row>
     <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="60" t="s">
@@ -1654,13 +1657,13 @@
         <f>C28/12</f>
         <v>601.94000000000005</v>
       </c>
-      <c r="D29" s="98"/>
+      <c r="D29" s="95"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="20"/>
       <c r="B30" s="10"/>
       <c r="C30" s="25"/>
-      <c r="D30" s="98"/>
+      <c r="D30" s="95"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
@@ -1672,7 +1675,7 @@
       <c r="A32" s="20"/>
       <c r="B32" s="10"/>
       <c r="C32" s="25"/>
-      <c r="D32" s="98" t="s">
+      <c r="D32" s="95" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1682,13 +1685,13 @@
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="25"/>
-      <c r="D33" s="98"/>
+      <c r="D33" s="95"/>
     </row>
     <row r="34" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="53"/>
       <c r="B34" s="10"/>
       <c r="C34" s="25"/>
-      <c r="D34" s="98"/>
+      <c r="D34" s="95"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="76" t="s">
@@ -1696,7 +1699,7 @@
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="25"/>
-      <c r="D35" s="98"/>
+      <c r="D35" s="95"/>
     </row>
     <row r="36" spans="1:4" ht="21" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
@@ -1707,7 +1710,7 @@
         <v>480</v>
       </c>
       <c r="C36" s="35"/>
-      <c r="D36" s="98"/>
+      <c r="D36" s="95"/>
     </row>
     <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="59" t="s">
@@ -1718,13 +1721,13 @@
         <f>SUM(B36:B37)</f>
         <v>480</v>
       </c>
-      <c r="D37" s="98"/>
+      <c r="D37" s="95"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="61"/>
       <c r="B38" s="62"/>
       <c r="C38" s="67"/>
-      <c r="D38" s="98"/>
+      <c r="D38" s="95"/>
     </row>
     <row r="39" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="64"/>
@@ -1736,7 +1739,7 @@
       <c r="A40" s="61"/>
       <c r="B40" s="62"/>
       <c r="C40" s="68"/>
-      <c r="D40" s="98" t="s">
+      <c r="D40" s="95" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1746,7 +1749,7 @@
       </c>
       <c r="B41" s="21"/>
       <c r="C41" s="35"/>
-      <c r="D41" s="98"/>
+      <c r="D41" s="95"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
@@ -1756,7 +1759,7 @@
         <v>67.95</v>
       </c>
       <c r="C42" s="35"/>
-      <c r="D42" s="98"/>
+      <c r="D42" s="95"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
@@ -1766,7 +1769,7 @@
         <v>95</v>
       </c>
       <c r="C43" s="35"/>
-      <c r="D43" s="98"/>
+      <c r="D43" s="95"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
@@ -1777,7 +1780,7 @@
         <v>247.5</v>
       </c>
       <c r="C44" s="35"/>
-      <c r="D44" s="98"/>
+      <c r="D44" s="95"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
@@ -1788,7 +1791,7 @@
         <v>317.60000000000002</v>
       </c>
       <c r="C45" s="35"/>
-      <c r="D45" s="98"/>
+      <c r="D45" s="95"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
@@ -1799,7 +1802,7 @@
         <v>324.87</v>
       </c>
       <c r="C46" s="42"/>
-      <c r="D46" s="98"/>
+      <c r="D46" s="95"/>
     </row>
     <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="59" t="s">
@@ -1810,13 +1813,13 @@
         <f>SUM(B42:B46)</f>
         <v>1052.92</v>
       </c>
-      <c r="D47" s="98"/>
+      <c r="D47" s="95"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="20"/>
       <c r="B48" s="10"/>
       <c r="C48" s="25"/>
-      <c r="D48" s="98"/>
+      <c r="D48" s="95"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
@@ -1828,7 +1831,7 @@
       <c r="A50" s="20"/>
       <c r="B50" s="10"/>
       <c r="C50" s="25"/>
-      <c r="D50" s="98" t="s">
+      <c r="D50" s="95" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1838,13 +1841,13 @@
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="25"/>
-      <c r="D51" s="98"/>
+      <c r="D51" s="95"/>
     </row>
     <row r="52" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="53"/>
       <c r="B52" s="10"/>
       <c r="C52" s="25"/>
-      <c r="D52" s="98"/>
+      <c r="D52" s="95"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="76" t="s">
@@ -1852,7 +1855,7 @@
       </c>
       <c r="B53" s="19"/>
       <c r="C53" s="35"/>
-      <c r="D53" s="98"/>
+      <c r="D53" s="95"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
@@ -1862,7 +1865,7 @@
         <v>273.39999999999998</v>
       </c>
       <c r="C54" s="41"/>
-      <c r="D54" s="98"/>
+      <c r="D54" s="95"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
@@ -1872,7 +1875,7 @@
         <v>177</v>
       </c>
       <c r="C55" s="41"/>
-      <c r="D55" s="98"/>
+      <c r="D55" s="95"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
@@ -1882,7 +1885,7 @@
         <v>347</v>
       </c>
       <c r="C56" s="41"/>
-      <c r="D56" s="98"/>
+      <c r="D56" s="95"/>
     </row>
     <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="59" t="s">
@@ -1893,13 +1896,13 @@
         <f>SUM(B53:B57)</f>
         <v>797.4</v>
       </c>
-      <c r="D57" s="98"/>
+      <c r="D57" s="95"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="20"/>
       <c r="B58" s="10"/>
       <c r="C58" s="25"/>
-      <c r="D58" s="98"/>
+      <c r="D58" s="95"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
@@ -1911,7 +1914,7 @@
       <c r="A60" s="20"/>
       <c r="B60" s="10"/>
       <c r="C60" s="25"/>
-      <c r="D60" s="98" t="s">
+      <c r="D60" s="95" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1921,13 +1924,13 @@
       </c>
       <c r="B61" s="46"/>
       <c r="C61" s="46"/>
-      <c r="D61" s="98"/>
+      <c r="D61" s="95"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="46"/>
       <c r="B62" s="46"/>
       <c r="C62" s="46"/>
-      <c r="D62" s="98"/>
+      <c r="D62" s="95"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="76" t="s">
@@ -1935,7 +1938,7 @@
       </c>
       <c r="B63" s="21"/>
       <c r="C63" s="35"/>
-      <c r="D63" s="98"/>
+      <c r="D63" s="95"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
@@ -1946,7 +1949,7 @@
         <v>500</v>
       </c>
       <c r="C64" s="35"/>
-      <c r="D64" s="98"/>
+      <c r="D64" s="95"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
@@ -1957,7 +1960,7 @@
         <v>625</v>
       </c>
       <c r="C65" s="35"/>
-      <c r="D65" s="98"/>
+      <c r="D65" s="95"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
@@ -1967,7 +1970,7 @@
         <v>300</v>
       </c>
       <c r="C66" s="35"/>
-      <c r="D66" s="98"/>
+      <c r="D66" s="95"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
@@ -1977,7 +1980,7 @@
         <v>1250</v>
       </c>
       <c r="C67" s="35"/>
-      <c r="D67" s="98"/>
+      <c r="D67" s="95"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
@@ -1988,7 +1991,7 @@
         <v>375</v>
       </c>
       <c r="C68" s="35"/>
-      <c r="D68" s="98"/>
+      <c r="D68" s="95"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
@@ -1998,7 +2001,7 @@
         <v>650</v>
       </c>
       <c r="C69" s="35"/>
-      <c r="D69" s="98"/>
+      <c r="D69" s="95"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
@@ -2008,7 +2011,7 @@
         <v>250</v>
       </c>
       <c r="C70" s="35"/>
-      <c r="D70" s="98"/>
+      <c r="D70" s="95"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
@@ -2018,7 +2021,7 @@
         <v>600</v>
       </c>
       <c r="C71" s="35"/>
-      <c r="D71" s="98"/>
+      <c r="D71" s="95"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
@@ -2028,7 +2031,7 @@
         <v>1200</v>
       </c>
       <c r="C72" s="35"/>
-      <c r="D72" s="98"/>
+      <c r="D72" s="95"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
@@ -2038,7 +2041,7 @@
         <v>650</v>
       </c>
       <c r="C73" s="35"/>
-      <c r="D73" s="98"/>
+      <c r="D73" s="95"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
@@ -2048,7 +2051,7 @@
         <v>1500</v>
       </c>
       <c r="C74" s="42"/>
-      <c r="D74" s="98"/>
+      <c r="D74" s="95"/>
     </row>
     <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="59" t="s">
@@ -2059,13 +2062,13 @@
         <f>SUM(B64:B74)</f>
         <v>7900</v>
       </c>
-      <c r="D75" s="98"/>
+      <c r="D75" s="95"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="61"/>
       <c r="B76" s="62"/>
       <c r="C76" s="67"/>
-      <c r="D76" s="98"/>
+      <c r="D76" s="95"/>
     </row>
     <row r="77" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="64"/>
@@ -2077,7 +2080,7 @@
       <c r="A78" s="61"/>
       <c r="B78" s="62"/>
       <c r="C78" s="67"/>
-      <c r="D78" s="98" t="s">
+      <c r="D78" s="95" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2087,7 +2090,7 @@
       </c>
       <c r="B79" s="21"/>
       <c r="C79" s="35"/>
-      <c r="D79" s="98"/>
+      <c r="D79" s="95"/>
     </row>
     <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
@@ -2097,7 +2100,7 @@
         <v>350</v>
       </c>
       <c r="C80" s="35"/>
-      <c r="D80" s="98"/>
+      <c r="D80" s="95"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
@@ -2107,7 +2110,7 @@
         <v>250</v>
       </c>
       <c r="C81" s="35"/>
-      <c r="D81" s="98"/>
+      <c r="D81" s="95"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
@@ -2117,7 +2120,7 @@
         <v>200</v>
       </c>
       <c r="C82" s="35"/>
-      <c r="D82" s="98"/>
+      <c r="D82" s="95"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
@@ -2127,7 +2130,7 @@
         <v>550</v>
       </c>
       <c r="C83" s="35"/>
-      <c r="D83" s="98"/>
+      <c r="D83" s="95"/>
     </row>
     <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="59" t="s">
@@ -2138,13 +2141,13 @@
         <f>SUM(B80:B83)</f>
         <v>1350</v>
       </c>
-      <c r="D84" s="98"/>
+      <c r="D84" s="95"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="61"/>
       <c r="B85" s="62"/>
       <c r="C85" s="67"/>
-      <c r="D85" s="98"/>
+      <c r="D85" s="95"/>
     </row>
     <row r="86" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="64"/>
@@ -2156,7 +2159,7 @@
       <c r="A87" s="61"/>
       <c r="B87" s="62"/>
       <c r="C87" s="67"/>
-      <c r="D87" s="98" t="s">
+      <c r="D87" s="95" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2166,7 +2169,7 @@
       </c>
       <c r="B88" s="21"/>
       <c r="C88" s="35"/>
-      <c r="D88" s="98"/>
+      <c r="D88" s="95"/>
     </row>
     <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
@@ -2176,7 +2179,7 @@
         <v>544.99</v>
       </c>
       <c r="C89" s="35"/>
-      <c r="D89" s="98"/>
+      <c r="D89" s="95"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
@@ -2186,7 +2189,7 @@
         <v>1100</v>
       </c>
       <c r="C90" s="35"/>
-      <c r="D90" s="98"/>
+      <c r="D90" s="95"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
@@ -2196,7 +2199,7 @@
         <v>800</v>
       </c>
       <c r="C91" s="35"/>
-      <c r="D91" s="98"/>
+      <c r="D91" s="95"/>
     </row>
     <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="59" t="s">
@@ -2207,13 +2210,13 @@
         <f>SUM(B89:B91)</f>
         <v>2444.9899999999998</v>
       </c>
-      <c r="D92" s="98"/>
+      <c r="D92" s="95"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="20"/>
       <c r="B93" s="10"/>
       <c r="C93" s="25"/>
-      <c r="D93" s="98"/>
+      <c r="D93" s="95"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
@@ -2225,7 +2228,7 @@
       <c r="A95" s="20"/>
       <c r="B95" s="10"/>
       <c r="C95" s="32"/>
-      <c r="D95" s="98"/>
+      <c r="D95" s="95"/>
     </row>
     <row r="96" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A96" s="69" t="s">
@@ -2233,7 +2236,7 @@
       </c>
       <c r="B96" s="10"/>
       <c r="C96" s="25"/>
-      <c r="D96" s="98"/>
+      <c r="D96" s="95"/>
     </row>
     <row r="97" spans="1:4" s="45" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="70"/>
@@ -2245,7 +2248,7 @@
       <c r="A98" s="20"/>
       <c r="B98" s="10"/>
       <c r="C98" s="25"/>
-      <c r="D98" s="98"/>
+      <c r="D98" s="95"/>
     </row>
     <row r="99" spans="1:4" ht="36" x14ac:dyDescent="0.2">
       <c r="A99" s="53" t="s">
@@ -2256,13 +2259,13 @@
         <f>C10+C19+C28</f>
         <v>19134.68</v>
       </c>
-      <c r="D99" s="98"/>
+      <c r="D99" s="95"/>
     </row>
     <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="20"/>
       <c r="B100" s="10"/>
       <c r="C100" s="32"/>
-      <c r="D100" s="98"/>
+      <c r="D100" s="95"/>
     </row>
     <row r="101" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A101" s="53" t="s">
@@ -2273,13 +2276,13 @@
         <f>C37+C47</f>
         <v>1532.92</v>
       </c>
-      <c r="D101" s="98"/>
+      <c r="D101" s="95"/>
     </row>
     <row r="102" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="20"/>
       <c r="B102" s="10"/>
       <c r="C102" s="32"/>
-      <c r="D102" s="98"/>
+      <c r="D102" s="95"/>
     </row>
     <row r="103" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A103" s="53" t="s">
@@ -2290,13 +2293,13 @@
         <f>C57</f>
         <v>797.4</v>
       </c>
-      <c r="D103" s="98"/>
+      <c r="D103" s="95"/>
     </row>
     <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="20"/>
       <c r="B104" s="10"/>
       <c r="C104" s="32"/>
-      <c r="D104" s="98"/>
+      <c r="D104" s="95"/>
     </row>
     <row r="105" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A105" s="53" t="s">
@@ -2307,13 +2310,13 @@
         <f>C75+C84+C92</f>
         <v>11694.99</v>
       </c>
-      <c r="D105" s="98"/>
+      <c r="D105" s="95"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="20"/>
       <c r="B106" s="10"/>
       <c r="C106" s="25"/>
-      <c r="D106" s="98"/>
+      <c r="D106" s="95"/>
     </row>
     <row r="107" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A107" s="73" t="s">
@@ -2324,7 +2327,7 @@
         <f>C99+C101+C103+C105</f>
         <v>33159.99</v>
       </c>
-      <c r="D107" s="98"/>
+      <c r="D107" s="95"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="45"/>
@@ -2347,7 +2350,7 @@
     </row>
     <row r="111" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A111" s="53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B111" s="86"/>
       <c r="C111" s="80"/>
@@ -2357,7 +2360,7 @@
       <c r="A112" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="B112" s="96">
+      <c r="B112" s="101">
         <v>200</v>
       </c>
       <c r="C112" s="80"/>
@@ -2367,7 +2370,7 @@
       <c r="A113" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="B113" s="86"/>
+      <c r="B113" s="102"/>
       <c r="C113" s="80"/>
       <c r="D113" s="80"/>
     </row>
@@ -2375,8 +2378,8 @@
       <c r="A114" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="B114" s="91" t="s">
-        <v>78</v>
+      <c r="B114" s="100">
+        <v>3000</v>
       </c>
       <c r="C114" s="80"/>
       <c r="D114" s="80"/>
@@ -2385,51 +2388,51 @@
       <c r="A115" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="B115" s="86"/>
+      <c r="B115" s="102"/>
       <c r="C115" s="80"/>
       <c r="D115" s="80"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="90" t="s">
-        <v>73</v>
-      </c>
-      <c r="B116" s="91" t="s">
-        <v>78</v>
+        <v>86</v>
+      </c>
+      <c r="B116" s="100">
+        <v>1500</v>
       </c>
       <c r="C116" s="80"/>
       <c r="D116" s="80"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="89" t="s">
-        <v>74</v>
-      </c>
-      <c r="B117" s="86"/>
+        <v>73</v>
+      </c>
+      <c r="B117" s="102"/>
       <c r="C117" s="80"/>
       <c r="D117" s="80"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="90" t="s">
-        <v>75</v>
-      </c>
-      <c r="B118" s="91" t="s">
-        <v>78</v>
+        <v>74</v>
+      </c>
+      <c r="B118" s="100">
+        <v>350</v>
       </c>
       <c r="C118" s="80"/>
       <c r="D118" s="80"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="88" t="s">
-        <v>76</v>
-      </c>
-      <c r="B119" s="96">
+        <v>75</v>
+      </c>
+      <c r="B119" s="101">
         <v>250</v>
       </c>
       <c r="C119" s="80"/>
       <c r="D119" s="80"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="93" t="s">
-        <v>79</v>
+      <c r="A120" s="92" t="s">
+        <v>78</v>
       </c>
       <c r="B120" s="80"/>
       <c r="C120" s="80"/>
@@ -2437,25 +2440,26 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="80"/>
-      <c r="B121" s="92" t="s">
-        <v>78</v>
+      <c r="B121" s="91" t="s">
+        <v>77</v>
       </c>
       <c r="C121" s="80"/>
       <c r="D121" s="80"/>
     </row>
     <row r="122" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="B122" s="92"/>
-      <c r="C122" s="59" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+      <c r="B122" s="91"/>
+      <c r="C122" s="103">
+        <f>SUM(B112:B119)</f>
+        <v>5300</v>
       </c>
       <c r="D122" s="80"/>
     </row>
     <row r="123" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="80"/>
-      <c r="B123" s="92"/>
+      <c r="B123" s="91"/>
       <c r="C123" s="80"/>
       <c r="D123" s="80"/>
     </row>
@@ -2467,15 +2471,15 @@
     </row>
     <row r="125" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B125" s="80"/>
       <c r="C125" s="80"/>
       <c r="D125" s="80"/>
     </row>
     <row r="126" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="94" t="s">
-        <v>81</v>
+      <c r="A126" s="93" t="s">
+        <v>80</v>
       </c>
       <c r="B126" s="82">
         <v>3500</v>
@@ -2484,8 +2488,8 @@
       <c r="D126" s="80"/>
     </row>
     <row r="127" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A127" s="94" t="s">
-        <v>82</v>
+      <c r="A127" s="93" t="s">
+        <v>81</v>
       </c>
       <c r="B127" s="82">
         <v>2000</v>
@@ -2494,8 +2498,8 @@
       <c r="D127" s="80"/>
     </row>
     <row r="128" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A128" s="94" t="s">
-        <v>83</v>
+      <c r="A128" s="93" t="s">
+        <v>82</v>
       </c>
       <c r="B128" s="82">
         <v>400</v>
@@ -2504,8 +2508,8 @@
       <c r="D128" s="80"/>
     </row>
     <row r="129" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A129" s="94" t="s">
-        <v>84</v>
+      <c r="A129" s="93" t="s">
+        <v>83</v>
       </c>
       <c r="B129" s="82">
         <v>150</v>
@@ -2521,10 +2525,10 @@
     </row>
     <row r="131" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="59" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B131" s="86"/>
-      <c r="C131" s="95">
+      <c r="C131" s="94">
         <f>SUM(B126,B127,B128,B129)</f>
         <v>6050</v>
       </c>
@@ -2538,6 +2542,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D14:D21"/>
+    <mergeCell ref="D23:D30"/>
+    <mergeCell ref="D32:D38"/>
+    <mergeCell ref="D95:D96"/>
     <mergeCell ref="D98:D107"/>
     <mergeCell ref="D3:D12"/>
     <mergeCell ref="D40:D48"/>
@@ -2545,11 +2554,6 @@
     <mergeCell ref="D60:D76"/>
     <mergeCell ref="D78:D85"/>
     <mergeCell ref="D87:D93"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D14:D21"/>
-    <mergeCell ref="D23:D30"/>
-    <mergeCell ref="D32:D38"/>
-    <mergeCell ref="D95:D96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2577,11 +2581,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -2605,11 +2609,11 @@
       <c r="X1" s="3"/>
     </row>
     <row r="2" spans="1:24" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
